--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dlk2-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dlk2-Notch1.xlsx
@@ -546,10 +546,10 @@
         <v>0.106965</v>
       </c>
       <c r="I2">
-        <v>0.05464328735324499</v>
+        <v>0.07105816984606554</v>
       </c>
       <c r="J2">
-        <v>0.05464328735324499</v>
+        <v>0.07105816984606554</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N2">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O2">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P2">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q2">
-        <v>2.14441219013</v>
+        <v>2.447265605625</v>
       </c>
       <c r="R2">
-        <v>19.29970971117</v>
+        <v>22.025390450625</v>
       </c>
       <c r="S2">
-        <v>0.02936225977177489</v>
+        <v>0.03848298397381625</v>
       </c>
       <c r="T2">
-        <v>0.02936225977177488</v>
+        <v>0.03848298397381625</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.106965</v>
       </c>
       <c r="I3">
-        <v>0.05464328735324499</v>
+        <v>0.07105816984606554</v>
       </c>
       <c r="J3">
-        <v>0.05464328735324499</v>
+        <v>0.07105816984606554</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>33.150224</v>
       </c>
       <c r="O3">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P3">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q3">
         <v>0.39399041224</v>
@@ -638,10 +638,10 @@
         <v>3.54591371016</v>
       </c>
       <c r="S3">
-        <v>0.005394694585782151</v>
+        <v>0.006195456138973937</v>
       </c>
       <c r="T3">
-        <v>0.005394694585782151</v>
+        <v>0.006195456138973937</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.106965</v>
       </c>
       <c r="I4">
-        <v>0.05464328735324499</v>
+        <v>0.07105816984606554</v>
       </c>
       <c r="J4">
-        <v>0.05464328735324499</v>
+        <v>0.07105816984606554</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N4">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q4">
-        <v>0.43694620135</v>
+        <v>0.5779994849950001</v>
       </c>
       <c r="R4">
-        <v>3.93251581215</v>
+        <v>5.201995364955001</v>
       </c>
       <c r="S4">
-        <v>0.005982864642058943</v>
+        <v>0.009088978681680944</v>
       </c>
       <c r="T4">
-        <v>0.005982864642058942</v>
+        <v>0.009088978681680944</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.106965</v>
       </c>
       <c r="I5">
-        <v>0.05464328735324499</v>
+        <v>0.07105816984606554</v>
       </c>
       <c r="J5">
-        <v>0.05464328735324499</v>
+        <v>0.07105816984606554</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N5">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q5">
-        <v>0.547596228795</v>
+        <v>0.724704359495</v>
       </c>
       <c r="R5">
-        <v>4.928366059155</v>
+        <v>6.522339235455001</v>
       </c>
       <c r="S5">
-        <v>0.00749793476922379</v>
+        <v>0.01139589678705038</v>
       </c>
       <c r="T5">
-        <v>0.00749793476922379</v>
+        <v>0.01139589678705038</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.106965</v>
       </c>
       <c r="I6">
-        <v>0.05464328735324499</v>
+        <v>0.07105816984606554</v>
       </c>
       <c r="J6">
-        <v>0.05464328735324499</v>
+        <v>0.07105816984606554</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N6">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q6">
-        <v>0.4678149573449999</v>
+        <v>0.37487410284</v>
       </c>
       <c r="R6">
-        <v>4.210334616104999</v>
+        <v>3.37386692556</v>
       </c>
       <c r="S6">
-        <v>0.006405533584405224</v>
+        <v>0.005894854264544031</v>
       </c>
       <c r="T6">
-        <v>0.006405533584405224</v>
+        <v>0.005894854264544031</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1910563333333333</v>
+        <v>0.1910563333333334</v>
       </c>
       <c r="H7">
-        <v>0.5731689999999999</v>
+        <v>0.573169</v>
       </c>
       <c r="I7">
-        <v>0.2928045469917456</v>
+        <v>0.3807632417379475</v>
       </c>
       <c r="J7">
-        <v>0.2928045469917456</v>
+        <v>0.3807632417379474</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N7">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O7">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P7">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q7">
-        <v>11.49077352970244</v>
+        <v>13.113605197125</v>
       </c>
       <c r="R7">
-        <v>103.416961767322</v>
+        <v>118.022446774125</v>
       </c>
       <c r="S7">
-        <v>0.1573368585156681</v>
+        <v>0.2062100073976375</v>
       </c>
       <c r="T7">
-        <v>0.1573368585156681</v>
+        <v>0.2062100073976374</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1910563333333333</v>
+        <v>0.1910563333333334</v>
       </c>
       <c r="H8">
-        <v>0.5731689999999999</v>
+        <v>0.573169</v>
       </c>
       <c r="I8">
-        <v>0.2928045469917456</v>
+        <v>0.3807632417379475</v>
       </c>
       <c r="J8">
-        <v>0.2928045469917456</v>
+        <v>0.3807632417379474</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>33.150224</v>
       </c>
       <c r="O8">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P8">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q8">
         <v>2.111186748872889</v>
@@ -948,10 +948,10 @@
         <v>19.000680739856</v>
       </c>
       <c r="S8">
-        <v>0.02890732203092759</v>
+        <v>0.03319818071069559</v>
       </c>
       <c r="T8">
-        <v>0.02890732203092758</v>
+        <v>0.03319818071069558</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1910563333333333</v>
+        <v>0.1910563333333334</v>
       </c>
       <c r="H9">
-        <v>0.5731689999999999</v>
+        <v>0.573169</v>
       </c>
       <c r="I9">
-        <v>0.2928045469917456</v>
+        <v>0.3807632417379475</v>
       </c>
       <c r="J9">
-        <v>0.2928045469917456</v>
+        <v>0.3807632417379474</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N9">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q9">
-        <v>2.341364159132222</v>
+        <v>3.097194286122556</v>
       </c>
       <c r="R9">
-        <v>21.07227743219</v>
+        <v>27.87474857510301</v>
       </c>
       <c r="S9">
-        <v>0.03205901504253056</v>
+        <v>0.04870304138737331</v>
       </c>
       <c r="T9">
-        <v>0.03205901504253055</v>
+        <v>0.0487030413873733</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1910563333333333</v>
+        <v>0.1910563333333334</v>
       </c>
       <c r="H10">
-        <v>0.5731689999999999</v>
+        <v>0.573169</v>
       </c>
       <c r="I10">
-        <v>0.2928045469917456</v>
+        <v>0.3807632417379475</v>
       </c>
       <c r="J10">
-        <v>0.2928045469917456</v>
+        <v>0.3807632417379474</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N10">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q10">
-        <v>2.934279276980333</v>
+        <v>3.883308306711445</v>
       </c>
       <c r="R10">
-        <v>26.408513492823</v>
+        <v>34.949774760403</v>
       </c>
       <c r="S10">
-        <v>0.04017747649924022</v>
+        <v>0.06106459837831892</v>
       </c>
       <c r="T10">
-        <v>0.04017747649924021</v>
+        <v>0.06106459837831891</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.1910563333333333</v>
+        <v>0.1910563333333334</v>
       </c>
       <c r="H11">
-        <v>0.5731689999999999</v>
+        <v>0.573169</v>
       </c>
       <c r="I11">
-        <v>0.2928045469917456</v>
+        <v>0.3807632417379475</v>
       </c>
       <c r="J11">
-        <v>0.2928045469917456</v>
+        <v>0.3807632417379474</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N11">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q11">
-        <v>2.506773536076999</v>
+        <v>2.008752532610667</v>
       </c>
       <c r="R11">
-        <v>22.560961824693</v>
+        <v>18.078772793496</v>
       </c>
       <c r="S11">
-        <v>0.03432387490337921</v>
+        <v>0.03158741386392221</v>
       </c>
       <c r="T11">
-        <v>0.0343238749033792</v>
+        <v>0.0315874138639222</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4257933333333333</v>
+        <v>0.2750606666666667</v>
       </c>
       <c r="H12">
-        <v>1.27738</v>
+        <v>0.825182</v>
       </c>
       <c r="I12">
-        <v>0.6525521656550094</v>
+        <v>0.5481785884159871</v>
       </c>
       <c r="J12">
-        <v>0.6525521656550094</v>
+        <v>0.548178588415987</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N12">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O12">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P12">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q12">
-        <v>25.60864996427111</v>
+        <v>18.87944212575</v>
       </c>
       <c r="R12">
-        <v>230.47784967844</v>
+        <v>169.91497913175</v>
       </c>
       <c r="S12">
-        <v>0.350645195973167</v>
+        <v>0.2968771624501626</v>
       </c>
       <c r="T12">
-        <v>0.3506451959731669</v>
+        <v>0.2968771624501625</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4257933333333333</v>
+        <v>0.2750606666666667</v>
       </c>
       <c r="H13">
-        <v>1.27738</v>
+        <v>0.825182</v>
       </c>
       <c r="I13">
-        <v>0.6525521656550094</v>
+        <v>0.5481785884159871</v>
       </c>
       <c r="J13">
-        <v>0.6525521656550094</v>
+        <v>0.548178588415987</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>33.150224</v>
       </c>
       <c r="O13">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P13">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q13">
-        <v>4.705048125902222</v>
+        <v>3.039440904529778</v>
       </c>
       <c r="R13">
-        <v>42.34543313312</v>
+        <v>27.354968140768</v>
       </c>
       <c r="S13">
-        <v>0.06442364296719866</v>
+        <v>0.04779487577872006</v>
       </c>
       <c r="T13">
-        <v>0.06442364296719864</v>
+        <v>0.04779487577872005</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4257933333333333</v>
+        <v>0.2750606666666667</v>
       </c>
       <c r="H14">
-        <v>1.27738</v>
+        <v>0.825182</v>
       </c>
       <c r="I14">
-        <v>0.6525521656550094</v>
+        <v>0.5481785884159871</v>
       </c>
       <c r="J14">
-        <v>0.6525521656550094</v>
+        <v>0.548178588415987</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N14">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O14">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P14">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q14">
-        <v>5.218027753755556</v>
+        <v>4.458979769337112</v>
       </c>
       <c r="R14">
-        <v>46.9622497838</v>
+        <v>40.13081792403401</v>
       </c>
       <c r="S14">
-        <v>0.07144759160915488</v>
+        <v>0.07011696916287426</v>
       </c>
       <c r="T14">
-        <v>0.07144759160915486</v>
+        <v>0.07011696916287424</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4257933333333333</v>
+        <v>0.2750606666666667</v>
       </c>
       <c r="H15">
-        <v>1.27738</v>
+        <v>0.825182</v>
       </c>
       <c r="I15">
-        <v>0.6525521656550094</v>
+        <v>0.5481785884159871</v>
       </c>
       <c r="J15">
-        <v>0.6525521656550094</v>
+        <v>0.548178588415987</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N15">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O15">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P15">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q15">
-        <v>6.539414488273334</v>
+        <v>5.590735219714889</v>
       </c>
       <c r="R15">
-        <v>58.85473039446</v>
+        <v>50.316616977434</v>
       </c>
       <c r="S15">
-        <v>0.08954061529950064</v>
+        <v>0.08791369983201805</v>
       </c>
       <c r="T15">
-        <v>0.08954061529950061</v>
+        <v>0.08791369983201804</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4257933333333333</v>
+        <v>0.2750606666666667</v>
       </c>
       <c r="H16">
-        <v>1.27738</v>
+        <v>0.825182</v>
       </c>
       <c r="I16">
-        <v>0.6525521656550094</v>
+        <v>0.5481785884159871</v>
       </c>
       <c r="J16">
-        <v>0.6525521656550094</v>
+        <v>0.548178588415987</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N16">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O16">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P16">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q16">
-        <v>5.586663583539999</v>
+        <v>2.891968044965334</v>
       </c>
       <c r="R16">
-        <v>50.27997225185999</v>
+        <v>26.027712404688</v>
       </c>
       <c r="S16">
-        <v>0.07649511980598836</v>
+        <v>0.04547588119221215</v>
       </c>
       <c r="T16">
-        <v>0.07649511980598835</v>
+        <v>0.04547588119221214</v>
       </c>
     </row>
   </sheetData>
